--- a/data/trans_orig/P1410-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22776</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14504</v>
+        <v>14605</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33687</v>
+        <v>33959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04807422195852872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03061294943616594</v>
+        <v>0.030826701321679</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07110392356740586</v>
+        <v>0.07167647668970663</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1072</v>
+        <v>1132</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10749</v>
+        <v>11891</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01432021171004315</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003494021344925042</v>
+        <v>0.00369084294501222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03504853169493204</v>
+        <v>0.03877233134962253</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>27168</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18712</v>
+        <v>16941</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39056</v>
+        <v>38557</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03481058898751447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02397560273674628</v>
+        <v>0.02170634850971789</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05004215808204878</v>
+        <v>0.0494036334410098</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>451000</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440089</v>
+        <v>439817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459272</v>
+        <v>459171</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9519257780414713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9288960764325942</v>
+        <v>0.9283235233102933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.969387050563834</v>
+        <v>0.9691732986783209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -836,19 +836,19 @@
         <v>302288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295931</v>
+        <v>294789</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305608</v>
+        <v>305548</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9856797882899568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9649514683050678</v>
+        <v>0.9612276686503775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.996505978655075</v>
+        <v>0.9963091570549878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>727</v>
@@ -857,19 +857,19 @@
         <v>753289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741401</v>
+        <v>741900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761745</v>
+        <v>763516</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9651894110124856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9499578419179513</v>
+        <v>0.9505963665589904</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9760243972632537</v>
+        <v>0.9782936514902822</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7078</v>
+        <v>6605</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21486</v>
+        <v>21609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03358335261883091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01929087866923744</v>
+        <v>0.01800028918284147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05855581351411948</v>
+        <v>0.05889186372076756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5852</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2152</v>
+        <v>1972</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13486</v>
+        <v>12980</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01573672262282409</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00578632669848303</v>
+        <v>0.005301912221544829</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03626557239688473</v>
+        <v>0.03490524436089235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1003,19 +1003,19 @@
         <v>18175</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11444</v>
+        <v>11275</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28722</v>
+        <v>28280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02460048364477125</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01548998986444197</v>
+        <v>0.0152616062252628</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03887676758838123</v>
+        <v>0.03827785936145831</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>354611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345448</v>
+        <v>345325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359856</v>
+        <v>360329</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9664166473811691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9414441864858806</v>
+        <v>0.9411081362792332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9807091213307626</v>
+        <v>0.9819997108171586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>358</v>
@@ -1053,19 +1053,19 @@
         <v>366013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>358379</v>
+        <v>358885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369713</v>
+        <v>369893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9842632773771759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9637344276031153</v>
+        <v>0.9650947556391073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.994213673301517</v>
+        <v>0.9946980877784551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -1074,19 +1074,19 @@
         <v>720624</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>710077</v>
+        <v>710519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>727355</v>
+        <v>727524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9753995163552287</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9611232324116188</v>
+        <v>0.9617221406385416</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9845100101355581</v>
+        <v>0.9847383937747369</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16763</v>
+        <v>16644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35158</v>
+        <v>36378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04684900494703446</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03090497269437058</v>
+        <v>0.03068618696959901</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06482065569744809</v>
+        <v>0.06706988164719584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8207</v>
+        <v>8838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01860218104710618</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005593037704737541</v>
+        <v>0.005663196081044363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04891508409770888</v>
+        <v>0.05267700505961995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1220,19 +1220,19 @@
         <v>28531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19250</v>
+        <v>19536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40628</v>
+        <v>39627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04017553336773799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02710590923350101</v>
+        <v>0.02750841167229661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05720828154912428</v>
+        <v>0.05579888269904562</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>516979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>507231</v>
+        <v>506011</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>525626</v>
+        <v>525745</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9531509950529655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.935179344302552</v>
+        <v>0.9329301183528046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9690950273056295</v>
+        <v>0.969313813030401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -1270,19 +1270,19 @@
         <v>164661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159575</v>
+        <v>158944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166844</v>
+        <v>166832</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9813978189528938</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9510849159022908</v>
+        <v>0.9473229949403812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9944069622952625</v>
+        <v>0.9943368039189557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>665</v>
@@ -1291,19 +1291,19 @@
         <v>681640</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>669543</v>
+        <v>670544</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>690921</v>
+        <v>690635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9598244666322621</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9427917184508756</v>
+        <v>0.9442011173009544</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9728940907664989</v>
+        <v>0.9724915883277034</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>70565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55793</v>
+        <v>55553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87373</v>
+        <v>86533</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05698342940589614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04505460396363753</v>
+        <v>0.04486096724627868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07055695380944507</v>
+        <v>0.06987827298881759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1416,19 +1416,19 @@
         <v>25171</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16124</v>
+        <v>16657</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36768</v>
+        <v>36164</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03523953967625422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02257419042440377</v>
+        <v>0.02331971126969094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05147478855243166</v>
+        <v>0.05062939083296526</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -1437,19 +1437,19 @@
         <v>95736</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76789</v>
+        <v>79155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116774</v>
+        <v>116447</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04902932487058455</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03932614116047566</v>
+        <v>0.04053794675508048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05980388969098716</v>
+        <v>0.05963623984158112</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1167769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1150961</v>
+        <v>1151801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1182541</v>
+        <v>1182781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9430165705941038</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9294430461905548</v>
+        <v>0.9301217270111807</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9549453960363611</v>
+        <v>0.955139032753721</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>669</v>
@@ -1487,19 +1487,19 @@
         <v>689114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>677517</v>
+        <v>678121</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698161</v>
+        <v>697628</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9647604603237457</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9485252114475683</v>
+        <v>0.949370609167035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9774258095755962</v>
+        <v>0.9766802887303094</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1820</v>
@@ -1508,19 +1508,19 @@
         <v>1856884</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1835846</v>
+        <v>1836173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1875831</v>
+        <v>1873465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9509706751294155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.940196110309013</v>
+        <v>0.9403637601584193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9606738588395245</v>
+        <v>0.9594620532449196</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>18172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11185</v>
+        <v>10923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28242</v>
+        <v>26850</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05183916651535057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03190660135351004</v>
+        <v>0.03116025455726424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08056368948464754</v>
+        <v>0.07659241408165093</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1633,19 +1633,19 @@
         <v>28215</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19278</v>
+        <v>18652</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40243</v>
+        <v>40083</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0496078358414116</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03389595509299924</v>
+        <v>0.03279399127431405</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.070757369800763</v>
+        <v>0.07047621685804067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1654,19 +1654,19 @@
         <v>46387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33984</v>
+        <v>35200</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61358</v>
+        <v>62150</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05045869918965867</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03696666525433238</v>
+        <v>0.03829010927214279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06674368943327876</v>
+        <v>0.06760578411521972</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>332383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>322313</v>
+        <v>323705</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>339370</v>
+        <v>339632</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9481608334846494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9194363105153526</v>
+        <v>0.9234075859183489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9680933986464905</v>
+        <v>0.9688397454427357</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>513</v>
@@ -1704,19 +1704,19 @@
         <v>540537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>528509</v>
+        <v>528669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549474</v>
+        <v>550100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9503921641585884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9292426301992369</v>
+        <v>0.9295237831419593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9661040449070007</v>
+        <v>0.967206008725686</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>834</v>
@@ -1725,19 +1725,19 @@
         <v>872920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>857949</v>
+        <v>857157</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>885323</v>
+        <v>884107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9495413008103413</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9332563105667206</v>
+        <v>0.9323942158847802</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9630333347456671</v>
+        <v>0.9617098907278571</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003066313466181129</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -1850,19 +1850,19 @@
         <v>59950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46926</v>
+        <v>45747</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76266</v>
+        <v>75944</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04800773912028115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03757782553703293</v>
+        <v>0.03663427446424034</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06107367832245066</v>
+        <v>0.06081537353490506</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1871,19 +1871,19 @@
         <v>60864</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46690</v>
+        <v>46646</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77574</v>
+        <v>79658</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0393445839438463</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03018203300701023</v>
+        <v>0.03015340999598487</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05014589034171135</v>
+        <v>0.05149311934095414</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>297287</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>293627</v>
+        <v>293587</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9969336865338189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9846624411069284</v>
+        <v>0.984528625962181</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1188810</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1172494</v>
+        <v>1172816</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1201834</v>
+        <v>1203013</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9519922608797189</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9389263216775493</v>
+        <v>0.9391846264650949</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9624221744629671</v>
+        <v>0.9633657255357597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1485</v>
@@ -1942,19 +1942,19 @@
         <v>1486096</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1469386</v>
+        <v>1467302</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1500270</v>
+        <v>1500314</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9606554160561537</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9498541096582886</v>
+        <v>0.9485068806590459</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9698179669929897</v>
+        <v>0.969846590004015</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>150161</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129292</v>
+        <v>128944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>175304</v>
+        <v>175118</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04591816296857777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0395365625073391</v>
+        <v>0.03942998914563681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05360654371572803</v>
+        <v>0.05354975749976043</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>121</v>
@@ -2067,19 +2067,19 @@
         <v>126701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105101</v>
+        <v>106331</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>151353</v>
+        <v>151506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03750618198552895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03111230836053244</v>
+        <v>0.03147635709045758</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04480376078171878</v>
+        <v>0.04484906769447064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>277</v>
@@ -2088,19 +2088,19 @@
         <v>276862</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>241720</v>
+        <v>246688</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>308865</v>
+        <v>308506</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04164388907943226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03635809394371486</v>
+        <v>0.03710528669525691</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04645760467408289</v>
+        <v>0.04640357871749126</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3120029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3094886</v>
+        <v>3095072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3140898</v>
+        <v>3141246</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9540818370314222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.946393456284272</v>
+        <v>0.9464502425002396</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9604634374926608</v>
+        <v>0.9605700108543632</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3175</v>
@@ -2138,19 +2138,19 @@
         <v>3251423</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3226771</v>
+        <v>3226618</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3273023</v>
+        <v>3271793</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9624938180144711</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9551962392182812</v>
+        <v>0.9551509323055293</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9688876916394675</v>
+        <v>0.9685236429095423</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6226</v>
@@ -2159,19 +2159,19 @@
         <v>6371452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6339449</v>
+        <v>6339808</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6406594</v>
+        <v>6401626</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9583561109205677</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9535423953259172</v>
+        <v>0.9535964212825084</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9636419060562852</v>
+        <v>0.9628947133047431</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>10980</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5837</v>
+        <v>6120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19850</v>
+        <v>19040</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02511279962439744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01335134932141047</v>
+        <v>0.01399835670025408</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04540032615991195</v>
+        <v>0.04354906856016534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5389</v>
+        <v>5520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003207594760992985</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01713619463589551</v>
+        <v>0.01755508097236963</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2547,19 +2547,19 @@
         <v>11988</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6100</v>
+        <v>6846</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20216</v>
+        <v>20391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01594889741978984</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008115841131728446</v>
+        <v>0.009108382027543443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02689508209648387</v>
+        <v>0.02712773121395671</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>426231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417361</v>
+        <v>418171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>431374</v>
+        <v>431091</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9748872003756025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9545996738400876</v>
+        <v>0.9564509314398354</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9866486506785894</v>
+        <v>0.9860016432997462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -2597,7 +2597,7 @@
         <v>313445</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309065</v>
+        <v>308934</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -2606,7 +2606,7 @@
         <v>0.996792405239007</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9828638053641057</v>
+        <v>0.9824449190276306</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2618,19 +2618,19 @@
         <v>739677</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>731449</v>
+        <v>731274</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745565</v>
+        <v>744819</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9840511025802101</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9731049179035161</v>
+        <v>0.9728722687860432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9918841588682713</v>
+        <v>0.9908916179724565</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>11492</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5462</v>
+        <v>5318</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21844</v>
+        <v>22347</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02743976355313114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01304165920678028</v>
+        <v>0.01269767833646137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05215886019284847</v>
+        <v>0.05336094304717396</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2743,19 +2743,19 @@
         <v>3798</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11440</v>
+        <v>11162</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01123556358738089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002915496783664568</v>
+        <v>0.002903980810884073</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03384390477572582</v>
+        <v>0.03302209502176851</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2764,19 +2764,19 @@
         <v>15289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8378</v>
+        <v>8031</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27283</v>
+        <v>25967</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02020252633588407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01107059672358963</v>
+        <v>0.01061207757699671</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03605073999746156</v>
+        <v>0.03431125402194787</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>407305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396953</v>
+        <v>396450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413335</v>
+        <v>413479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9725602364468688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9478411398071515</v>
+        <v>0.946639056952826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9869583407932196</v>
+        <v>0.9873023216635386</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>302</v>
@@ -2814,19 +2814,19 @@
         <v>334213</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326571</v>
+        <v>326849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337026</v>
+        <v>337029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9887644364126191</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9661560952242745</v>
+        <v>0.9669779049782317</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9970845032163355</v>
+        <v>0.9970960191891159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>667</v>
@@ -2835,19 +2835,19 @@
         <v>741519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>729525</v>
+        <v>730841</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748430</v>
+        <v>748777</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.979797473664116</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9639492600025386</v>
+        <v>0.965688745978052</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9889294032764104</v>
+        <v>0.9893879224230032</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>30551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21237</v>
+        <v>21523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42994</v>
+        <v>42542</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04853896067479931</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03374139592885269</v>
+        <v>0.03419578841815853</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06830795507642344</v>
+        <v>0.06758911069805087</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2960,19 +2960,19 @@
         <v>9681</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4338</v>
+        <v>5098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17441</v>
+        <v>18255</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03721698468735276</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01667710950272228</v>
+        <v>0.0195992308280131</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06704681279355529</v>
+        <v>0.07017718183851371</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -2981,19 +2981,19 @@
         <v>40232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28149</v>
+        <v>29800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53941</v>
+        <v>53913</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04522807517248239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03164410210194283</v>
+        <v>0.03350081410656474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06063926177864203</v>
+        <v>0.06060783890255622</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>598864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>586421</v>
+        <v>586873</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608178</v>
+        <v>607892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9514610393252007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9316920449235762</v>
+        <v>0.9324108893019492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9662586040711469</v>
+        <v>0.9658042115818415</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -3031,19 +3031,19 @@
         <v>250448</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>242688</v>
+        <v>241874</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255791</v>
+        <v>255031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9627830153126472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9329531872064447</v>
+        <v>0.9298228181614864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9833228904972777</v>
+        <v>0.9804007691719869</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>797</v>
@@ -3052,19 +3052,19 @@
         <v>849312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>835603</v>
+        <v>835631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>861395</v>
+        <v>859744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9547719248275176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9393607382213583</v>
+        <v>0.9393921610974437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9683558978980572</v>
+        <v>0.9664991858934353</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>51412</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38926</v>
+        <v>38187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66984</v>
+        <v>68047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04435849145738711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03358573126207935</v>
+        <v>0.03294828512219193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05779461385074522</v>
+        <v>0.05871124268880682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3177,19 +3177,19 @@
         <v>16575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10076</v>
+        <v>9515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25845</v>
+        <v>25393</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02167444745262811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01317627345846204</v>
+        <v>0.01244229568609005</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03379627361212428</v>
+        <v>0.03320496645166467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -3198,19 +3198,19 @@
         <v>67987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53462</v>
+        <v>52402</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87430</v>
+        <v>85556</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03534112473973374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02779056238316538</v>
+        <v>0.02723986613143076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04544830104104673</v>
+        <v>0.04447386360884892</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1107597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1092025</v>
+        <v>1090962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1120083</v>
+        <v>1120822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9556415085426129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9422053861492548</v>
+        <v>0.9412887573111934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9664142687379207</v>
+        <v>0.9670517148778084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>694</v>
@@ -3248,19 +3248,19 @@
         <v>748147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>738877</v>
+        <v>739329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>754646</v>
+        <v>755207</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9783255525473719</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9662037263878758</v>
+        <v>0.9667950335483355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868237265415379</v>
+        <v>0.98755770431391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1729</v>
@@ -3269,19 +3269,19 @@
         <v>1855744</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1836301</v>
+        <v>1838175</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1870269</v>
+        <v>1871329</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9646588752602663</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.954551698958954</v>
+        <v>0.9555261363911511</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9722094376168346</v>
+        <v>0.9727601338685693</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>23592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14961</v>
+        <v>14462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34627</v>
+        <v>34849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04620545484860282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02930039826289862</v>
+        <v>0.02832400077054306</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06781648085128165</v>
+        <v>0.06825105526123265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -3394,19 +3394,19 @@
         <v>50980</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38464</v>
+        <v>38220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66566</v>
+        <v>67193</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06705710263516598</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05059463043516785</v>
+        <v>0.05027322508926867</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08755807473366138</v>
+        <v>0.08838272281350069</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -3415,19 +3415,19 @@
         <v>74572</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59396</v>
+        <v>58639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94487</v>
+        <v>91212</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05867937438548305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04673782532175146</v>
+        <v>0.04614218171685495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07434984892745758</v>
+        <v>0.07177283651382585</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>487004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>475969</v>
+        <v>475747</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>495635</v>
+        <v>496134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9537945451513972</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9321835191487184</v>
+        <v>0.9317489447387675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9706996017371015</v>
+        <v>0.9716759992294571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>654</v>
@@ -3465,19 +3465,19 @@
         <v>709266</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>693680</v>
+        <v>693053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>721782</v>
+        <v>722026</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.932942897364834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9124419252663386</v>
+        <v>0.911617277186499</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.949405369564832</v>
+        <v>0.9497267749107312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1119</v>
@@ -3486,19 +3486,19 @@
         <v>1196271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1176356</v>
+        <v>1179631</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1211447</v>
+        <v>1212204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9413206256145169</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9256501510725423</v>
+        <v>0.9282271634861742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.953262174678248</v>
+        <v>0.953857818283145</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>4261</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12861</v>
+        <v>12944</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01596650297148476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003650063888494184</v>
+        <v>0.003560300662180448</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04819135185911208</v>
+        <v>0.04850067126971916</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -3611,19 +3611,19 @@
         <v>65681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51235</v>
+        <v>51589</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82508</v>
+        <v>84327</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05927018368261487</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04623431345469902</v>
+        <v>0.04655333761581789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07445479077964666</v>
+        <v>0.07609541456748087</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -3632,19 +3632,19 @@
         <v>69943</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54793</v>
+        <v>55011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>87116</v>
+        <v>89924</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05086542287479848</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03984788347846497</v>
+        <v>0.04000628886440476</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0633549431840378</v>
+        <v>0.06539661254177115</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>262621</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254021</v>
+        <v>253938</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265908</v>
+        <v>265932</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9840334970285153</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9518086481408876</v>
+        <v>0.9514993287302794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963499361115058</v>
+        <v>0.9964396993378196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>981</v>
@@ -3682,19 +3682,19 @@
         <v>1042488</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1025661</v>
+        <v>1023842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1056934</v>
+        <v>1056580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9407298163173852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9255452092203533</v>
+        <v>0.9239045854325192</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9537656865453009</v>
+        <v>0.9534466623841822</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1243</v>
@@ -3703,19 +3703,19 @@
         <v>1305108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1287935</v>
+        <v>1285127</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320258</v>
+        <v>1320040</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9491345771252016</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.936645056815962</v>
+        <v>0.9346033874582287</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9601521165215349</v>
+        <v>0.9599937111355952</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>132288</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109323</v>
+        <v>109575</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>156124</v>
+        <v>157545</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03865906031283352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03194803222125772</v>
+        <v>0.03202156038015107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0456248472284692</v>
+        <v>0.04604000764159699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -3828,19 +3828,19 @@
         <v>147724</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126059</v>
+        <v>125244</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>173528</v>
+        <v>173773</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04166243566452672</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03555223839117581</v>
+        <v>0.0353225459975343</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0489400829935856</v>
+        <v>0.04900916741998824</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>262</v>
@@ -3849,19 +3849,19 @@
         <v>280012</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>244870</v>
+        <v>246309</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>314895</v>
+        <v>311200</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04018743446123406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0351439307716114</v>
+        <v>0.03535037435804961</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0451938776745678</v>
+        <v>0.04466361743360599</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3289622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3265786</v>
+        <v>3264365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3312587</v>
+        <v>3312335</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9613409396871665</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9543751527715308</v>
+        <v>0.9539599923584029</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9680519677787419</v>
+        <v>0.967978439619849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3148</v>
@@ -3899,19 +3899,19 @@
         <v>3398008</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3372204</v>
+        <v>3371959</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3419673</v>
+        <v>3420488</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9583375643354732</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9510599170064143</v>
+        <v>0.9509908325800117</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9644477616088242</v>
+        <v>0.9646774540024657</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6230</v>
@@ -3920,19 +3920,19 @@
         <v>6687630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6652747</v>
+        <v>6656442</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6722772</v>
+        <v>6721333</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9598125655387659</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9548061223254322</v>
+        <v>0.9553363825663939</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9648560692283885</v>
+        <v>0.9646496256419498</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>12867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6438</v>
+        <v>6165</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22821</v>
+        <v>21591</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02998652494270416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01500335274655719</v>
+        <v>0.01436752248228702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05318491904816652</v>
+        <v>0.05031879624082345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4287,19 +4287,19 @@
         <v>13934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7528</v>
+        <v>7556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22273</v>
+        <v>23119</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04014784011068445</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02168986648872294</v>
+        <v>0.02177151146392963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06417837079588659</v>
+        <v>0.06661378936175355</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4308,19 +4308,19 @@
         <v>26800</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17117</v>
+        <v>16682</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37811</v>
+        <v>39818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03453016765872323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02205360640892156</v>
+        <v>0.02149351654177406</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04871569071591238</v>
+        <v>0.0513026300488692</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>416225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406271</v>
+        <v>407501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>422654</v>
+        <v>422927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9700134750572958</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9468150809518333</v>
+        <v>0.9496812037591766</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9849966472534427</v>
+        <v>0.985632477517713</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>319</v>
@@ -4358,19 +4358,19 @@
         <v>333121</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>324782</v>
+        <v>323936</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>339527</v>
+        <v>339499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9598521598893155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9358216292041134</v>
+        <v>0.9333862106382463</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.978310133511277</v>
+        <v>0.9782284885360704</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>704</v>
@@ -4379,19 +4379,19 @@
         <v>749347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>738336</v>
+        <v>736329</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759030</v>
+        <v>759465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9654698323412768</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9512843092840876</v>
+        <v>0.9486973699511307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9779463935910784</v>
+        <v>0.9785064834582259</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>13411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7398</v>
+        <v>7395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22540</v>
+        <v>21699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0355506546158728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01961211476740836</v>
+        <v>0.01960373554093179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05975108733339567</v>
+        <v>0.05752333307820741</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4504,19 +4504,19 @@
         <v>6214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2043</v>
+        <v>2180</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12418</v>
+        <v>13344</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01669295935827844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005488414738802007</v>
+        <v>0.005856064039799381</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03335836921363688</v>
+        <v>0.03584486560267934</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4525,19 +4525,19 @@
         <v>19625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11875</v>
+        <v>11754</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30589</v>
+        <v>30574</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02618412575493292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01584334804683972</v>
+        <v>0.01568260233003978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04081299660834286</v>
+        <v>0.04079234609713897</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>363816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354687</v>
+        <v>355528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369829</v>
+        <v>369832</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9644493453841272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9402489126666045</v>
+        <v>0.9424766669217927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9803878852325917</v>
+        <v>0.9803962644590682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>346</v>
@@ -4575,19 +4575,19 @@
         <v>366059</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359855</v>
+        <v>358929</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370230</v>
+        <v>370093</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9833070406417216</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9666416307863632</v>
+        <v>0.9641551343973208</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.994511585261198</v>
+        <v>0.9941439359602007</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>687</v>
@@ -4596,19 +4596,19 @@
         <v>729875</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>718911</v>
+        <v>718926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>737625</v>
+        <v>737746</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9738158742450671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9591870033916571</v>
+        <v>0.9592076539028611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9841566519531602</v>
+        <v>0.9843173976699602</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>22772</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14625</v>
+        <v>14841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32967</v>
+        <v>33835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04363142205696744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02802191432386768</v>
+        <v>0.02843583904484909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06316617421662797</v>
+        <v>0.06482860409061052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4721,19 +4721,19 @@
         <v>12194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5886</v>
+        <v>5807</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21284</v>
+        <v>20494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07340368258607025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03543362928639097</v>
+        <v>0.03495738761830688</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1281247750990898</v>
+        <v>0.1233660165804769</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -4742,19 +4742,19 @@
         <v>34966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24688</v>
+        <v>24864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49887</v>
+        <v>48174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05081977825804012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03588191157661921</v>
+        <v>0.03613743610643588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07250666719469695</v>
+        <v>0.07001715386968291</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>499142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>488947</v>
+        <v>488079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>507289</v>
+        <v>507073</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9563685779430325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9368338257833719</v>
+        <v>0.9351713959093894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9719780856761322</v>
+        <v>0.9715641609551509</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -4792,19 +4792,19 @@
         <v>153929</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144839</v>
+        <v>145629</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160237</v>
+        <v>160316</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9265963174139298</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.871875224900911</v>
+        <v>0.8766339834195236</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9645663707136091</v>
+        <v>0.9650426123816932</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -4813,19 +4813,19 @@
         <v>653070</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>638149</v>
+        <v>639862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663348</v>
+        <v>663172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9491802217419599</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9274933328053034</v>
+        <v>0.9299828461303166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9641180884233809</v>
+        <v>0.9638625638935638</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>50250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38018</v>
+        <v>37431</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66588</v>
+        <v>65137</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04370898726865956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03306937798986318</v>
+        <v>0.0325586068968326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05792092629678918</v>
+        <v>0.05665901034008396</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -4938,19 +4938,19 @@
         <v>23117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15110</v>
+        <v>14021</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35382</v>
+        <v>35330</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02799071812749323</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01829570783306704</v>
+        <v>0.01697701231539816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04284227309837306</v>
+        <v>0.04277857814178304</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -4959,19 +4959,19 @@
         <v>73366</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56600</v>
+        <v>57316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89912</v>
+        <v>91960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03713786830280418</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0286509756131091</v>
+        <v>0.02901342006589295</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04551324174136023</v>
+        <v>0.0465498856118015</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1099388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1083050</v>
+        <v>1084501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1111620</v>
+        <v>1112207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9562910127313404</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.942079073703211</v>
+        <v>0.9433409896599161</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9669306220101368</v>
+        <v>0.9674413931031677</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>777</v>
@@ -5009,19 +5009,19 @@
         <v>802759</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>790494</v>
+        <v>790546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>810766</v>
+        <v>811855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9720092818725068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9571577269016265</v>
+        <v>0.957221421858217</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9817042921669327</v>
+        <v>0.9830229876846018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1829</v>
@@ -5030,19 +5030,19 @@
         <v>1902148</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1885602</v>
+        <v>1883554</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1918914</v>
+        <v>1918198</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9628621316971958</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9544867582586399</v>
+        <v>0.9534501143881986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.971349024386891</v>
+        <v>0.9709865799341071</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>27071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18322</v>
+        <v>18459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37374</v>
+        <v>37760</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04361257218000106</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02951739450369569</v>
+        <v>0.02973861929007235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0602120749212267</v>
+        <v>0.06083365898951328</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -5155,19 +5155,19 @@
         <v>31230</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20321</v>
+        <v>21034</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43898</v>
+        <v>45352</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04230289772863181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02752670834757794</v>
+        <v>0.02849212626985332</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05946316504388124</v>
+        <v>0.06143292988212951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -5176,19 +5176,19 @@
         <v>58300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43767</v>
+        <v>46038</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73809</v>
+        <v>76018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04290109679972114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03220649378775404</v>
+        <v>0.03387782722781464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05431305129465317</v>
+        <v>0.05593847560261948</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>593635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>583332</v>
+        <v>582946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602384</v>
+        <v>602247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.956387427819999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9397879250787733</v>
+        <v>0.9391663410104867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9704826054963043</v>
+        <v>0.9702613807099276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>671</v>
@@ -5226,19 +5226,19 @@
         <v>707014</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>694346</v>
+        <v>692892</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>717923</v>
+        <v>717210</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9576971022713682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9405368349561187</v>
+        <v>0.9385670701178704</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.972473291652422</v>
+        <v>0.9715078737301467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1239</v>
@@ -5247,19 +5247,19 @@
         <v>1300650</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1285141</v>
+        <v>1282932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1315183</v>
+        <v>1312912</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9570989032002789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9456869487053468</v>
+        <v>0.9440615243973803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.967793506212246</v>
+        <v>0.9661221727721853</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5968</v>
+        <v>5977</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004136365256465789</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0207842863254328</v>
+        <v>0.02081432958559724</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -5372,19 +5372,19 @@
         <v>72839</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55592</v>
+        <v>56902</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94079</v>
+        <v>92647</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06731733731591695</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05137806792089969</v>
+        <v>0.05258798796681728</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08694695041469462</v>
+        <v>0.0856234813978527</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -5393,19 +5393,19 @@
         <v>74027</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56264</v>
+        <v>57860</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93847</v>
+        <v>93544</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05406689395062093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04109360707902619</v>
+        <v>0.04225942397548525</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06854309827442834</v>
+        <v>0.0683214405656118</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>285957</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281177</v>
+        <v>281168</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9958636347435342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9792157136745673</v>
+        <v>0.979185670414403</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>1009186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>987946</v>
+        <v>989378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1026433</v>
+        <v>1025123</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9326826626840831</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9130530495853054</v>
+        <v>0.9143765186021473</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9486219320791002</v>
+        <v>0.9474120120331827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1203</v>
@@ -5464,19 +5464,19 @@
         <v>1295143</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1275323</v>
+        <v>1275626</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1312906</v>
+        <v>1311310</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9459331060493791</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9314569017255717</v>
+        <v>0.9316785594343882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9589063929209739</v>
+        <v>0.9577405760245148</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>127557</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103650</v>
+        <v>108051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>149867</v>
+        <v>151392</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03767507290858256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0306138739638763</v>
+        <v>0.03191377356858838</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04426439385707481</v>
+        <v>0.04471484401943942</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>138</v>
@@ -5589,19 +5589,19 @@
         <v>159528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>133142</v>
+        <v>134506</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186387</v>
+        <v>188059</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04517154089538593</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03770021311502819</v>
+        <v>0.03808637758382342</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05277705974834437</v>
+        <v>0.05325033576184862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -5610,19 +5610,19 @@
         <v>287085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>253906</v>
+        <v>256713</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>321870</v>
+        <v>325516</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04150235036273534</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03670584800324937</v>
+        <v>0.03711158283602022</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04653099973223181</v>
+        <v>0.04705812935328826</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3258165</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3235855</v>
+        <v>3234330</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3282072</v>
+        <v>3277671</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9623249270914175</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9557356061429251</v>
+        <v>0.9552851559805602</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9693861260361231</v>
+        <v>0.9680862264314114</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3188</v>
@@ -5660,19 +5660,19 @@
         <v>3372068</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3345209</v>
+        <v>3343537</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3398454</v>
+        <v>3397090</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9548284591046141</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9472229402516559</v>
+        <v>0.9467496642381513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9622997868849719</v>
+        <v>0.9619136224161765</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6284</v>
@@ -5681,19 +5681,19 @@
         <v>6630233</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6595448</v>
+        <v>6591802</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6663412</v>
+        <v>6660605</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9584976496372647</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9534690002677682</v>
+        <v>0.9529418706467117</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9632941519967506</v>
+        <v>0.9628884171639797</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>29067</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20855</v>
+        <v>21126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40415</v>
+        <v>39490</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05279020418153925</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03787501463964189</v>
+        <v>0.03836747925813368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0734001427388489</v>
+        <v>0.07171994698655722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -6048,19 +6048,19 @@
         <v>14006</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8796</v>
+        <v>9226</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21919</v>
+        <v>21656</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02867758315016674</v>
+        <v>0.02867758315016673</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01800928878469975</v>
+        <v>0.01889063459025072</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04487765260947319</v>
+        <v>0.04434007743088134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -6069,19 +6069,19 @@
         <v>43074</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32659</v>
+        <v>32852</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56121</v>
+        <v>55084</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04145571315743709</v>
+        <v>0.04145571315743708</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03143184317269378</v>
+        <v>0.0316178995071671</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05401298880629941</v>
+        <v>0.05301517198370668</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>521551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>510203</v>
+        <v>511128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>529763</v>
+        <v>529492</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9472097958184608</v>
+        <v>0.9472097958184607</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9265998572611518</v>
+        <v>0.9282800530134427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9621249853603582</v>
+        <v>0.9616325207418661</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>665</v>
@@ -6119,19 +6119,19 @@
         <v>474405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>466492</v>
+        <v>466755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>479615</v>
+        <v>479185</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9713224168498333</v>
+        <v>0.9713224168498332</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9551223473905268</v>
+        <v>0.9556599225691188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9819907112153003</v>
+        <v>0.9811093654097496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1182</v>
@@ -6140,19 +6140,19 @@
         <v>995955</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>982908</v>
+        <v>983945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1006370</v>
+        <v>1006177</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.958544286842563</v>
+        <v>0.9585442868425629</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9459870111937005</v>
+        <v>0.9469848280162935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9685681568273062</v>
+        <v>0.968382100492833</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>20045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13429</v>
+        <v>13660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27776</v>
+        <v>28417</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04148358352814351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0277917985453224</v>
+        <v>0.02826988329785509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0574813979684186</v>
+        <v>0.05880754049667612</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -6265,19 +6265,19 @@
         <v>5286</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2528</v>
+        <v>2395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10048</v>
+        <v>9573</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01251136830305124</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005984625942946667</v>
+        <v>0.005668394088065756</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02378219796524894</v>
+        <v>0.02265762560433011</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -6286,19 +6286,19 @@
         <v>25331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17665</v>
+        <v>18119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34861</v>
+        <v>35372</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02796865633119387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01950467533344515</v>
+        <v>0.02000520501145943</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03849073739477384</v>
+        <v>0.03905493527146101</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>463167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455436</v>
+        <v>454795</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469783</v>
+        <v>469552</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9585164164718565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9425186020315813</v>
+        <v>0.941192459503324</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9722082014546777</v>
+        <v>0.9717301167021449</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>580</v>
@@ -6336,19 +6336,19 @@
         <v>417206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>412444</v>
+        <v>412919</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419964</v>
+        <v>420097</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9874886316969488</v>
+        <v>0.9874886316969489</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9762178020347497</v>
+        <v>0.9773423743956692</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9940153740570531</v>
+        <v>0.9943316059119343</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1033</v>
@@ -6357,19 +6357,19 @@
         <v>880373</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>870843</v>
+        <v>870332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>888039</v>
+        <v>887585</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9720313436688061</v>
+        <v>0.9720313436688062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9615092626052264</v>
+        <v>0.9609450647285389</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9804953246665549</v>
+        <v>0.9799947949885406</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>29904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20858</v>
+        <v>21480</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40488</v>
+        <v>39772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0635250746241923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04430929894131126</v>
+        <v>0.0456292480838009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08600942521067975</v>
+        <v>0.08448830793749901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -6482,19 +6482,19 @@
         <v>11635</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6811</v>
+        <v>6558</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22364</v>
+        <v>22355</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06205560630577091</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03632501815605776</v>
+        <v>0.03497756448110329</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1192788710177426</v>
+        <v>0.119229016214768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -6503,19 +6503,19 @@
         <v>41539</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30926</v>
+        <v>31301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57613</v>
+        <v>55456</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0631065023420922</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04698230160346688</v>
+        <v>0.04755323249129703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08752569281716371</v>
+        <v>0.08424905946241101</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>440839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430255</v>
+        <v>430971</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>449885</v>
+        <v>449263</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9364749253758078</v>
+        <v>0.9364749253758077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9139905747893201</v>
+        <v>0.915511692062501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9556907010586886</v>
+        <v>0.9543707519161992</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>273</v>
@@ -6553,19 +6553,19 @@
         <v>175862</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165133</v>
+        <v>165142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180686</v>
+        <v>180939</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9379443936942292</v>
+        <v>0.937944393694229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8807211289822574</v>
+        <v>0.880770983785232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9636749818439422</v>
+        <v>0.9650224355188969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>722</v>
@@ -6574,19 +6574,19 @@
         <v>616702</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>600628</v>
+        <v>602785</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>627315</v>
+        <v>626940</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9368934976579077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9124743071828363</v>
+        <v>0.915750940537589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9530176983965332</v>
+        <v>0.9524467675087029</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>68556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55979</v>
+        <v>55082</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84536</v>
+        <v>84202</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06064428585137134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04951863052154038</v>
+        <v>0.04872511386035368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07477994786383212</v>
+        <v>0.07448419420107577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -6699,19 +6699,19 @@
         <v>21322</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15258</v>
+        <v>15242</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29154</v>
+        <v>29483</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02477742386585219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01773116199555001</v>
+        <v>0.01771256166933019</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03387891908891094</v>
+        <v>0.03426089998267503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>125</v>
@@ -6720,19 +6720,19 @@
         <v>89878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74800</v>
+        <v>74415</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107771</v>
+        <v>107703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04514207875133826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0375688757107377</v>
+        <v>0.03737539012072473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05412876881907368</v>
+        <v>0.05409462797643529</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1061906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1045926</v>
+        <v>1046260</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1074483</v>
+        <v>1075380</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9393557141486287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9252200521361673</v>
+        <v>0.9255158057989241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9504813694784596</v>
+        <v>0.9512748861396468</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1192</v>
@@ -6770,19 +6770,19 @@
         <v>839221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>831389</v>
+        <v>831060</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>845285</v>
+        <v>845301</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.975222576134148</v>
+        <v>0.9752225761341478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9661210809110891</v>
+        <v>0.965739100017325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9822688380044499</v>
+        <v>0.9822874383306698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2221</v>
@@ -6791,19 +6791,19 @@
         <v>1901127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1883234</v>
+        <v>1883302</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1916205</v>
+        <v>1916590</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.954857921248662</v>
+        <v>0.9548579212486616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9458712311809263</v>
+        <v>0.9459053720235644</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9624311242892624</v>
+        <v>0.9626246098792751</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>34646</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25573</v>
+        <v>25067</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45835</v>
+        <v>46172</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06110716344681641</v>
+        <v>0.0611071634468164</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04510340410310328</v>
+        <v>0.04421201044575686</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08084200705783379</v>
+        <v>0.0814360812778204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -6916,19 +6916,19 @@
         <v>52311</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42732</v>
+        <v>43802</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63784</v>
+        <v>63533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06311427459095291</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05155697024863801</v>
+        <v>0.05284751208152305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07695655571593824</v>
+        <v>0.07665378802722851</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -6937,19 +6937,19 @@
         <v>86957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73029</v>
+        <v>73736</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103519</v>
+        <v>102995</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06229898766342251</v>
+        <v>0.0622989876634225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05231989900255653</v>
+        <v>0.05282647023286369</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07416452683351514</v>
+        <v>0.07378850846880906</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>532330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>521141</v>
+        <v>520804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>541403</v>
+        <v>541909</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9388928365531836</v>
+        <v>0.9388928365531835</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9191579929421659</v>
+        <v>0.9185639187221792</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9548965958968961</v>
+        <v>0.9557879895542432</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1187</v>
@@ -6987,19 +6987,19 @@
         <v>776521</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>765048</v>
+        <v>765299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>786100</v>
+        <v>785030</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9368857254090472</v>
+        <v>0.9368857254090471</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.923043444284062</v>
+        <v>0.9233462119727713</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9484430297513622</v>
+        <v>0.9471524879184771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1688</v>
@@ -7008,19 +7008,19 @@
         <v>1308851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1292289</v>
+        <v>1292813</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1322779</v>
+        <v>1322072</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9377010123365774</v>
+        <v>0.9377010123365773</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.925835473166485</v>
+        <v>0.926211491531191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9476801009974437</v>
+        <v>0.9471735297671363</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>4630</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19614</v>
+        <v>19380</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01951538907694542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002209919601518747</v>
+        <v>0.002278109247678607</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.082681311892509</v>
+        <v>0.0816929479311084</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -7133,19 +7133,19 @@
         <v>57777</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47997</v>
+        <v>46676</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69932</v>
+        <v>70260</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06852093014858834</v>
+        <v>0.06852093014858833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05692252346375755</v>
+        <v>0.05535599183082296</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08293666981948372</v>
+        <v>0.08332602941453915</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -7154,19 +7154,19 @@
         <v>62406</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50412</v>
+        <v>49841</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78122</v>
+        <v>77821</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05776081826281467</v>
+        <v>0.05776081826281468</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04665952487533234</v>
+        <v>0.04613085382487309</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07230666760930363</v>
+        <v>0.07202794651069573</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>232598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217614</v>
+        <v>217848</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236704</v>
+        <v>236688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9804846109230546</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.917318688107492</v>
+        <v>0.918307052068891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9977900803984812</v>
+        <v>0.9977218907523213</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1059</v>
@@ -7204,19 +7204,19 @@
         <v>785418</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>773263</v>
+        <v>772935</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>795198</v>
+        <v>796519</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9314790698514117</v>
+        <v>0.9314790698514115</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9170633301805162</v>
+        <v>0.9166739705854609</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9430774765362417</v>
+        <v>0.9446440081691767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1168</v>
@@ -7225,19 +7225,19 @@
         <v>1018017</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1002301</v>
+        <v>1002602</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1030011</v>
+        <v>1030582</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9422391817371853</v>
+        <v>0.9422391817371851</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.927693332390697</v>
+        <v>0.9279720534893041</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9533404751246678</v>
+        <v>0.9538691461751269</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>186849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>163397</v>
+        <v>162434</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>213184</v>
+        <v>213066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05432845869138571</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04750963946469933</v>
+        <v>0.04722954416439627</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06198567493233895</v>
+        <v>0.06195138222546561</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>281</v>
@@ -7350,19 +7350,19 @@
         <v>162337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144709</v>
+        <v>142614</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>183139</v>
+        <v>184755</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04470908365364156</v>
+        <v>0.04470908365364158</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0398540685792737</v>
+        <v>0.03927723773081628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05043805604707351</v>
+        <v>0.05088313873094153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>520</v>
@@ -7371,19 +7371,19 @@
         <v>349186</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>318022</v>
+        <v>320354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>379757</v>
+        <v>384376</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04938834181176269</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04498061350621464</v>
+        <v>0.04531043403095918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05371231299445105</v>
+        <v>0.05436561477531749</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3252391</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3226056</v>
+        <v>3226174</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3275843</v>
+        <v>3276806</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9456715413086144</v>
+        <v>0.9456715413086142</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.938014325067661</v>
+        <v>0.9380486177745345</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9524903605353008</v>
+        <v>0.9527704558356038</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4956</v>
@@ -7421,19 +7421,19 @@
         <v>3468633</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3447831</v>
+        <v>3446215</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3486261</v>
+        <v>3488356</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9552909163463583</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9495619439529268</v>
+        <v>0.9491168612690586</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9601459314207264</v>
+        <v>0.9607227622691838</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8014</v>
@@ -7442,19 +7442,19 @@
         <v>6721023</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6690452</v>
+        <v>6685833</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6752187</v>
+        <v>6749855</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9506116581882373</v>
+        <v>0.9506116581882375</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.946287687005549</v>
+        <v>0.9456343852246825</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9550193864937854</v>
+        <v>0.9546895659690409</v>
       </c>
     </row>
     <row r="24">
